--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-城市治理.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-城市治理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>task_name</t>
   </si>
@@ -47,467 +47,370 @@
     <t>Crew Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">数学教授
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人工智能教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">化学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">数学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人工智能教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生物学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理学教授
-</t>
-  </si>
-  <si>
-    <t>根据用户提出的城市治理问题，提炼出3-5个核心的子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
+    <t>根据用户提出的问题：城市治理，提炼出其中核心的3-5个子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：城市治理，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>如何通过地理分析方法（如GIS和遥感）评估城市当前的土地利用模式，识别低效或不合理的土地使用区域，并提出优化建议？</t>
-  </si>
-  <si>
-    <t>如何利用地理信息系统和环境监测技术，评估城市环境质量（如空气质量、水质量）和生态系统健康状况？如何通过这些评估结果指导城市绿地的规划与建设，以提升居民的生活质量和城市的可持续性？</t>
-  </si>
-  <si>
-    <t>如何通过分析城市交通网络的空间布局和居民出行模式，识别交通拥堵的瓶颈，提出缓解方案？此问题对于改善城市交通效率、减少碳排放具有重要意义，涉及交通工程学、地理学和经济学等学科。</t>
-  </si>
-  <si>
-    <t>如何利用地理空间技术评估城市面临的主要灾害（如洪水、地震、城市内涝等）的风险，制定有效的应急预案，提高城市韧性？这需要地理学、灾害学、社会学等多学科的合作。</t>
-  </si>
-  <si>
-    <t>如何分析城市化进程中人口迁移、文化融合等人文地理现象，理解其对城市社会结构、经济发展的影响？此问题涉及社会学、经济学、地理学等多个学科，对于合理规划城市功能区、促进社会包容性具有重要意义。</t>
+    <t>从地理学的角度出发，探讨城市内部的空间布局如何影响城市功能区的运作效率，以及如何通过优化空间结构来促进城市的可持续发展和居民生活质量。例如，研究商业区、居住区、工业区等的合理分布，以及绿地、交通网络等基础设施的规划，都是这一子问题的重要内容。</t>
+  </si>
+  <si>
+    <t>从城市经济发展的角度，分析城市治理政策如何促进经济增长和创造就业机会。这包括对城市产业布局、投资环境、税收政策等的评估，以及这些政策如何影响城市经济的竞争力和居民的就业情况。</t>
+  </si>
+  <si>
+    <t>从社会学的角度，探讨城市治理中的社会问题，特别是如何增强城市的社会包容性和提高社区居民的参与度。这涉及到城市中不同社会群体（如低收入家庭、少数族裔、老年人等）的权益保护，以及如何通过社区参与机制促进公共事务的民主决策过程。</t>
+  </si>
+  <si>
+    <t>从生态保护和资源管理的角度，研究城市治理中如何平衡经济发展与环境保护，特别是如何应对城市化进程中出现的环境污染、生态破坏等问题，提出提高城市生态系统服务功能和实现绿色发展的策略。</t>
+  </si>
+  <si>
+    <t>从城市安全的角度，探讨城市治理中如何有效预防和应对自然灾害、公共卫生事件等突发事件，确保城市运行的安全性和稳定性。这包括城市基础设施的韧性建设、应急预案的制定与演练、以及危机管理中的多部门协作机制。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：城市治理
 </t>
   </si>
   <si>
-    <t>请从生物学的角度，分析城市治理中可能涉及的生物多样性保护、生态系统健康等方面的问题，并提出相应的解决方法。</t>
-  </si>
-  <si>
-    <t>请从物理学的角度，分析城市治理中可能涉及的城市交通网络和居民出行模式的问题，并提出相应的解决方法。</t>
-  </si>
-  <si>
-    <t>请从化学的角度，分析城市治理中可能涉及的城市环境质量评估与改善的问题，并提出相应的解决方法。</t>
+    <t>从地理学的角度出发，探讨城市内部的空间布局如何影响城市功能区的运作效率，以及如何通过优化空间结构来促进城市的可持续发展和居民生活质量。请提供具体的措施和建议。</t>
+  </si>
+  <si>
+    <t>从城市经济发展的角度，分析城市治理政策如何促进经济增长和创造就业机会。请提供具体的措施和建议。</t>
+  </si>
+  <si>
+    <t>从社会学的角度，探讨城市治理中的社会包容性和社区参与如何增强，提供具体的措施和建议。</t>
+  </si>
+  <si>
+    <t>从城市安全的角度，探讨城市治理中如何有效预防和应对自然灾害、公共卫生事件等突发事件，确保城市运行的安全性和稳定性。请提供具体的措施和建议。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：城市治理
 </t>
   </si>
   <si>
-    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请你整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：城市治理
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：城市治理
 </t>
   </si>
   <si>
-    <t>在城市治理的问题上，从地理学的视角出发，可以提炼出以下几个核心的子问题，这些问题不仅相互关联，而且适合由不同学科的专家进行深入分析：
-1. **城市空间结构与土地利用的优化**：如何通过地理分析方法（如GIS和遥感）评估城市当前的土地利用模式，识别低效或不合理的土地使用区域，并提出优化建议？此问题不仅涉及地理学，还与城市规划、经济学和社会学紧密相关。
-2. **城市环境质量与生态健康评估**：如何利用地理信息系统和环境监测技术，评估城市环境质量（如空气质量、水质量）和生态系统健康状况？如何通过这些评估结果指导城市绿地的规划与建设，以提升居民的生活质量和城市的可持续性？这需要环境科学、生态学和地理学等领域的合作研究。
-3. **城市交通网络与居民出行模式**：如何通过分析城市交通网络的空间布局和居民出行模式，识别交通拥堵的瓶颈，提出缓解方案？此问题对于改善城市交通效率、减少碳排放具有重要意义，涉及交通工程学、地理学和经济学等学科。
-4. **城市灾害风险管理与应急响应**：如何利用地理空间技术评估城市面临的主要灾害（如洪水、地震、城市内涝等）的风险，制定有效的应急预案，提高城市韧性？这需要地理学、灾害学、社会学等多学科的合作。
-5. **城市化进程中的人文地理变化**：如何分析城市化进程中人口迁移、文化融合等人文地理现象，理解其对城市社会结构、经济发展的影响？此问题涉及社会学、经济学、地理学等多个学科，对于合理规划城市功能区、促进社会包容性具有重要意义。
-这些问题构成了城市治理的核心内容，通过跨学科的合作，可以为城市提供更加科学、可持续的治理方案。</t>
-  </si>
-  <si>
-    <t>评估城市当前的土地利用模式并提出优化建议是一项系统性的工作，需要综合运用地理信息系统（GIS）和遥感技术。以下是一个基于这一方法的步骤和建议框架：
-1. **数据收集与处理**
-   - 收集最新的遥感影像数据，如高分辨率卫星影像或航空摄影影像，用于识别地表覆盖类型。
-   - 获取城市土地利用现状图、城市规划图、土地所有权信息等多源数据。
-   - 整合社会经济数据，如人口密度、交通流量、商业活动等，以全面了解城市土地利用的背景和影响因素。
-2. **土地利用分类与制图**
-   - 使用遥感技术对影像进行分类，识别城市中的主要土地利用类型，如住宅区、商业区、工业区、绿地、农业用地等。
-   - 结合多源数据，利用GIS技术制作高精度的土地利用现状图。
-3. **土地利用效率评估**
-   - 应用空间分析技术，如空间统计分析、空间自相关分析等，评估各土地利用类型的空间分布特征和效率。
-   - 评估土地利用与社会经济活动的匹配度，例如通过分析居住区与工作地点的空间关系，判断是否存在职住分离现象。
-   - 评估土地利用与环境因素的相互作用，如绿地分布与空气质量、温度调节的关系。
-4. **识别低效或不合理的土地使用区域**
-   - 通过上述评估，识别出土地利用效率低下或使用不合理区域，例如过度开发的工业区、交通不便的居住区、绿地不足的密集城区等。
-   - 分析这些区域存在的问题，如基础设施不足、环境污染、社会服务缺失等。
-5. **优化建议**
-   - 针对低效或不合理的土地使用区域，提出具体的优化建议：
-     - 优化土地利用布局，如重新规划工业区位置以减少对居住区的污染影响。
-     - 加强基础设施建设，提高交通便利性和公共服务水平。
-     - 增加绿地和公共空间，改善城市环境质量。
-     - 促进土地使用混合，提高土地利用效率，如在商业区周边增加住宅区，减少职住分离。
-     - 实施土地使用政策调整，如通过土地税收政策引导土地高效利用。
-6. **实施与监测**
-   - 将优化建议纳入城市规划和政策中，制定实施计划。
-   - 利用GIS和遥感技术，建立土地利用动态监测系统，定期评估优化措施的效果，及时调整策略。
-通过上述流程，可以科学地评估城市土地利用现状，识别问题区域，并提出有效的优化建议，为城市可持续发展提供决策支持。</t>
-  </si>
-  <si>
-    <t>利用地理信息系统（GIS）和环境监测技术评估城市环境质量和生态系统健康状况，并通过这些评估结果指导城市绿地的规划与建设，是一项复杂但至关重要的任务。这项工作不仅能提升居民的生活质量，还能促进城市的可持续发展。以下是一个详细的实施步骤：
-1. **数据收集与整合**：首先，需要收集关于城市环境质量（如空气质量、水质量）和生态系统健康状况的数据。这包括使用环境监测站获取的实时数据、历史数据以及遥感数据。这些数据来源可能包括地面监测站、卫星遥感以及无人机等。GIS可以帮助我们整合这些不同来源的数据，形成一个全面的城市环境数据库。
-2. **环境因素分析**：利用GIS的分析功能，对收集到的数据进行分析，识别城市中污染严重的区域、水质不佳的水域以及生态系统受损的地区。这一步骤还包括评估这些环境问题对周边社区的影响，比如空气质量差的区域是否靠近学校或居民区等。
-3. **模型建立与预测**：基于收集的数据和分析结果，建立环境质量模型和生态系统健康评估模型。这些模型可以帮助预测在不同管理措施下环境质量的变化趋势，例如，如果增加绿地面积，空气质量会如何改善；如果减少工业污染排放，水资源质量会如何变化。
-4. **城市绿地规划**：根据上述分析和预测的结果，制定城市绿地规划方案。这包括确定新建绿地的位置、类型和规模。例如，在污染严重的工业区附近规划大型公园，可以有效吸收污染物，改善空气质量；在城市热岛效应显著的区域种植绿植，可以降低地表温度，提高居民舒适度。
-5. **实施与监测**：与城市规划部门合作，实施绿地建设项目，并利用环境监测技术和GIS持续监测环境质量的变化，评估项目的效果。这不仅可以确保项目达到预期目标，还能及时调整规划方案，以应对新的挑战。
-6. **公众参与与教育**：在整个过程中，鼓励公众参与城市环境管理和生态系统保护，通过举办讲座、工作坊等形式提高居民的环保意识。公众的积极参与是城市可持续发展的关键因素之一。
-通过上述步骤，利用GIS和环境监测技术不仅可以有效地评估城市环境质量和生态系统健康状况，还能为城市绿地的科学规划与建设提供坚实的数据支持，最终实现提升居民生活质量和发展可持续城市的目标。</t>
-  </si>
-  <si>
-    <t>利用地理信息系统（GIS）和环境监测技术评估城市环境质量（如空气质量、水质量）和生态系统健康状况，是一项多学科交叉的综合性工作。以下是一套基于GIS和环境监测技术的城市环境质量与生态健康评估及绿地规划的流程：
-1. **数据收集与整合**：
-   - **环境监测数据**：通过地面监测站、遥感卫星等手段收集空气质量（如PM2.5、PM10、SO2、NO2等）、水质量（如pH值、溶解氧、氨氮等）数据。
-   - **社会经济数据**：收集人口密度、交通流量、工业分布等社会经济数据，这些数据对于理解人类活动对环境的影响至关重要。
-   - **生态数据**：包括植被覆盖度、生物多样性、绿地分布等，这些数据可以帮助我们了解生态系统的健康状况。
-2. **空间分析与模型构建**：
-   - **空间分布分析**：使用GIS软件对收集到的数据进行空间分布分析，例如，创建空气质量或水质量的空间分布图，以识别污染热点区域。
-   - **环境影响模型**：构建环境影响评估模型，如空气质量模型（AQM）和水文水质模型（WQM），以预测不同情景下环境质量的变化趋势。
-   - **生态系统服务评估**：评估绿地等自然空间提供给城市居民的服务，如空气净化、洪水调节、休闲娱乐等。
-3. **评估与诊断**：
-   - **环境质量评估**：基于收集的数据和模型结果，评估城市的环境质量状态，包括空气质量、水质量等方面。
-   - **生态健康诊断**：通过生物多样性、植被覆盖度等指标，评估生态系统健康状况，识别生态脆弱区和恢复潜力区。
-4. **规划与设计**：
-   - **基于评估结果的规划**：利用环境质量评估和生态健康诊断的结果，指导城市绿地的规划与建设。例如，在污染严重的区域增加绿地，以改善空气质量；在水体周边设置缓冲带，以保护水质。
-   - **绿色基础设施规划**：设计包括公园、绿道、屋顶绿化、垂直绿化等在内的绿色基础设施，增强城市的自然属性，提高生态服务功能。
-   - **公众参与**：通过公众咨询、工作坊等形式，让市民参与到绿地规划过程中，确保规划方案能够满足市民的需求，提高项目的接受度和实施效果。
-5. **实施与管理**：
-   - **建设实施**：根据规划方案，分阶段实施城市绿地建设，确保项目的顺利推进。
-   - **动态监测**：建立长期的环境监测体系，定期评估已建绿地的效果，及时调整管理措施。
-   - **政策支持**：制定相关政策，鼓励和支持城市绿地的建设和维护，如提供财政补贴、税收优惠等。
-6. **持续优化**：
-   - **反馈机制**：建立一个反馈机制，收集居民对城市绿地的使用感受和建议，用于持续优化绿地规划。
-   - **科技应用**：利用新技术，如物联网（IoT）、大数据分析等，提高城市环境质量和生态系统健康管理的效率和精度。
-通过上述流程，我们可以科学地评估城市环境质量与生态健康状况，并基于评估结果有效地指导城市绿地的规划与建设，从而提升居民的生活质量，促进城市的可持续发展。</t>
-  </si>
-  <si>
-    <t>分析城市交通网络的空间布局和居民出行模式，以识别交通拥堵的瓶颈并提出缓解方案，是一个多学科交叉的复杂问题。这需要我们运用数学建模、统计分析和优化理论等工具，结合交通工程学、地理学和经济学等领域的知识，具体步骤如下：
-1. **数据收集与处理**：首先，需要收集相关的交通数据，包括但不限于城市道路网络的拓扑结构、交通流量、出行时间和出行方式等。同时，还需收集居民出行模式的数据，如出行目的、出行时间分布等。这些数据可以通过交通信息系统、手机信令数据、问卷调查等多种途径获取，并进行预处理，以确保数据的准确性和可用性。
-2. **交通网络建模**：利用图论对城市交通网络进行建模，将其抽象为节点（如交叉口、重要建筑等）和边（如道路连接）构成的图。通过分析图的结构特征，如节点度、路径长度、介数中心性等，可以初步识别出潜在的交通瓶颈。例如，节点的介数中心性越高，表明该节点在交通网络中的重要性越大，往往是交通流量集中的区域，可能是造成拥堵的关键点。
-3. **出行模式分析**：通过分析居民的出行模式，可以发现出行的高峰时段、热点区域等。结合时间序列分析和模式识别技术，可以预测交通需求的变化趋势，为交通管理提供依据。例如，可以利用概率论建立出行选择模型，分析不同出行方式（如私家车、公共交通、步行等）之间的转换概率，预测在不同政策干预下的出行行为变化。
-4. **拥堵识别与量化**：基于上述模型，可以进一步分析交通流量与道路容量的关系，识别出流量超过道路承载能力的路段，这些路段即为交通瓶颈。同时，还可以通过构建交通流模型，模拟不同条件下的交通状态，量化拥堵的程度，如通过计算延误时间、平均速度等指标。
-5. **优化与策略制定**：针对识别出的交通瓶颈，可以提出多种缓解方案，包括但不限于道路基础设施的改善、交通管理措施的优化、公共交通系统的提升等。例如，可以通过建立优化模型，如线性规划或混合整数规划，寻找最优的交通信号控制方案，以提高道路的通行效率。此外，还可以考虑利用经济手段，如实施拥堵收费，调节出行需求，减少高峰时段的交通压力。
-6. **方案评估与实施**：提出的缓解方案需要经过严格的评估，包括技术可行性、经济成本和环境影响等多方面的考量。可以通过建立多目标优化模型，综合评估不同方案的效果，选出最优方案进行实施。同时，还需要建立监测和反馈机制，对实施效果进行持续跟踪，以便及时调整策略。
-通过上述步骤，我们可以科学地识别城市交通网络中的瓶颈，提出有效的缓解方案，从而改善城市交通效率，减少碳排放，为构建更加绿色、智能的城市交通系统贡献力量。</t>
-  </si>
-  <si>
-    <t>分析城市交通网络的空间布局和居民出行模式，以识别交通拥堵瓶颈并提出缓解方案，是一项复杂的跨学科任务。具体步骤如下：
-1. 数据收集与处理：
-   - **交通数据**：从交通监控系统、GPS数据、公共交通系统和交通调查等多渠道收集城市交通流量、速度、车辆类型等数据。
-   - **居民出行模式数据**：通过问卷调查、手机信令数据、社交媒体数据等方式收集居民出行的时间、地点、频率、目的等信息。
-   - **数据预处理**：清洗数据，处理缺失值、异常值，将数据标准化，确保数据质量和一致性。
-2. 交通网络建模：
-   - **图论基础**：将城市交通网络视为图结构，其中节点代表交叉口或重要地点，边代表道路连接，边的权重可以是道路长度、通行时间或交通流量。
-   - **网络分析**：利用图论中的最短路径算法（如Dijkstra算法）、最小生成树、网络流等方法，分析网络的连通性、可达性和网络效率。
-3. 出行模式分析：
-   - **时间序列分析**：分析居民出行的时间分布，识别高峰时段。
-   - **空间分布分析**：分析居民出行的起点和终点，识别热门区域和目的地。
-   - **出行链分析**：研究居民的多目的地出行模式，了解出行的目的性和规律。
-4. 拥堵识别与量化：
-   - **拥堵热点分析**：结合交通数据和出行模式数据，识别交通流量大、通行能力有限的路段和交叉口。
-   - **拥堵量化**：通过交通流量与道路容量的比值、平均速度下降率等指标，量化拥堵程度。
-   - **影响分析**：评估拥堵对居民出行时间、环境质量、经济效益等方面的影响。
-5. 优化与策略制定：
-   - **道路基础设施改善**：提出增加车道、建设快速路、优化交叉口设计等措施，提高道路通行能力。
-   - **交通管理优化**：实施智能交通信号控制、动态交通信息发布、拥堵收费等措施，提高交通管理的效率。
-   - **公共交通优化**：增加公共交通工具的频率和覆盖范围，提高公共交通的吸引力，减少私家车的使用。
-   - **出行行为干预**：通过政策引导、宣传教育等手段，鼓励居民选择绿色出行方式，减少高峰时段的出行需求。
-6. 方案评估与实施：
-   - **技术可行性评估**：评估各方案的技术复杂度和实施难度。
-   - **经济成本评估**：计算各方案的投资成本、运营成本和预期收益。
-   - **环境影响评估**：评估各方案对空气质量、噪音水平和碳排放的影响。
-   - **社会影响评估**：分析各方案对居民生活质量和出行满意度的影响。
-   - **综合评价与选择**：根据多方面评估结果，选择最优方案，制定详细的实施计划，确保方案的有效执行。
-通过上述步骤，我们可以系统地分析城市交通网络的空间布局和居民出行模式，识别交通拥堵的瓶颈，并提出和实施有效的缓解方案，从而改善城市交通效率，减少碳排放，促进城市的可持续发展。</t>
-  </si>
-  <si>
-    <t>在城市灾害风险管理与应急响应中，地理空间技术（如GIS、遥感）发挥着至关重要的作用。以下是我们可以采取的步骤，以确保我们能够有效地评估城市面临的主要灾害（如洪水、地震、城市内涝等）的风险，并制定有效的应急预案，提高城市的韧性：
-1. **数据收集与处理**：首先，我们需要收集与灾害相关的各种数据，包括灾害历史数据、地形数据、建筑物数据等。这些数据可以从政府机构、研究机构、卫星遥感等多渠道获得。通过GIS技术，我们可以将这些数据进行整合，形成一个全面的城市灾害管理数据库。这个数据库将为后续的风险评估、应急预案制定等工作提供坚实的数据支持。
-2. **风险评估**：利用GIS和遥感技术，我们可以对收集到的数据进行分析，以评估不同区域面临的灾害风险。例如，通过分析地形数据和历史洪水数据，我们可以识别出城市中易发生洪水的区域；通过分析地震活动数据和地质结构，可以评估城市中不同区域的地震风险。将这些风险评估结果可视化，绘制出详细的风险地图，可以为城市规划者和管理者提供直观的决策支持。
-3. **应急预案制定**：基于风险评估的结果，我们可以制定详细的应急预案。这些预案应包括但不限于预警系统的设计、疏散路线的规划、救援资源的分配等。例如，对于高风险区域，我们可以规划多条紧急疏散路线，并确保这些路线在灾害发生时可以迅速启用。同时，我们还需要建立一套高效的预警系统，以便在灾害发生前及时向市民发出警报，减少人员伤亡和财产损失。
-4. **模拟与演练**：理论上的预案制定完成后，我们还需要通过模拟演练来检验预案的实际效果。这不仅可以帮助我们发现预案中的不足之处，还可以提高市民对灾害应对的意识和能力。模拟演练应该尽可能真实地模拟灾害发生时的场景，包括但不限于交通中断、通讯中断等情况，以确保预案在实际灾害发生时的有效性。
-5. **持续监测与更新**：城市的发展变化和自然灾害的不确定性要求我们必须建立一个长期的灾害监测体系。这个体系应该能够实时监测城市中的各种灾害风险，并定期更新风险评估和应急预案，以确保它们始终与当前的城市发展状况相匹配。此外，随着技术的进步，我们还应该不断探索新的地理空间技术的应用，以提高灾害风险评估的准确性和应急预案的有效性。
-通过上述步骤，我们可以充分利用地理空间技术的力量，提高城市面对自然灾害的韧性和应急响应能力，保护市民的生命财产安全，促进城市的可持续发展。</t>
-  </si>
-  <si>
-    <t>在分析城市化进程中的人口迁移、文化融合等人文地理现象及其对城市社会结构、经济发展的影响时，可以从以下几个方面着手：
-1. 数据收集与处理：首先，需要收集关于城市化进程中人口迁移、文化融合的相关数据。这些数据可以包括人口普查数据、移民统计、文化活动记录、社交媒体行为等。数据收集的范围应该涵盖城市的不同功能区，以全面反映城市化过程中的变化。数据处理方面，可以利用地理信息系统（GIS）技术对数据进行空间分析，识别人口迁移的路径、密度和文化活动的地理分布。
-2. 人口迁移分析：基于收集到的数据，可以分析人口迁移的规律和趋势，识别主要的迁入和迁出区域。例如，通过分析人口普查数据，可以发现哪些区域的人口增长或减少最为显著，以及这些变化的主要原因。这有助于理解城市化进程中的人口流动模式，以及这些模式对城市资源分布和社会服务需求的影响。
-3. 文化融合分析：研究不同文化群体的融合情况，评估文化多样性的社会影响。这包括了解不同文化背景的人们如何在城市中互动、融合，以及这种融合如何影响城市的社会结构和文化景观。可以通过问卷调查、深度访谈、文化活动参与等方法收集定性数据，结合定量数据分析来全面评估文化融合的程度和影响。
-4. 社会影响评估：评估人口迁移和文化融合对城市社会结构、经济发展的影响。这一步骤需要跨学科的合作，结合社会学、经济学和地理学的理论和方法，评估这些人文地理现象如何影响城市的社会凝聚力、经济发展动力和生活质量。例如，可以分析人口迁移对城市劳动力市场的影响，以及文化多样性对创新和创业活动的促进作用。
-5. 规划建议：基于上述分析，提出合理的城市功能区规划建议，促进社会包容性。这些建议可能包括：优化公共服务设施的布局，确保不同文化背景的人们都能方便地获得教育、医疗等服务；设计多文化公共空间，促进不同文化群体之间的交流和理解；支持社区发展项目，增强社区内的社会联系和文化认同感；以及制定包容性政策，鼓励多元文化和包容性增长。
-通过上述分析和规划建议，可以更有效地应对城市化进程中的人文地理变化，促进城市社会的和谐发展和经济活力。</t>
-  </si>
-  <si>
-    <t>城市治理是一个多学科交叉的综合性问题，涉及地理学、环境科学、交通工程学、灾害学、社会学等多个领域。以下是各个学科专家对城市治理核心子问题的详细分析：
-### 1. 城市空间结构与土地利用的优化
-**地理学教授分析：**
-评估城市当前的土地利用模式并提出优化建议是一项系统性的工作，需要综合运用地理信息系统（GIS）和遥感技术。具体步骤如下：
-1. **数据收集与处理**：收集最新的遥感影像数据、城市土地利用现状图、城市规划图、土地所有权信息等多源数据。整合社会经济数据，如人口密度、交通流量、商业活动等。
-2. **土地利用分类与制图**：使用遥感技术对影像进行分类，识别城市中的主要土地利用类型，利用GIS技术制作高精度的土地利用现状图。
-3. **土地利用效率评估**：应用空间分析技术，评估各土地利用类型的空间分布特征和效率，评估土地利用与社会经济活动的匹配度和与环境因素的相互作用。
-4. **识别低效或不合理的土地使用区域**：通过评估，识别出土地利用效率低下或使用不合理区域，分析这些问题区域存在的问题。
-5. **优化建议**：提出具体的优化建议，如优化土地利用布局、加强基础设施建设、增加绿地和公共空间、促进土地使用混合、实施土地使用政策调整等。
-6. **实施与监测**：将优化建议纳入城市规划和政策中，制定实施计划，利用GIS和遥感技术建立动态监测系统，定期评估优化措施的效果。
-### 2. 城市环境质量与生态健康评估
-**地理学教授分析：**
-利用地理信息系统（GIS）和环境监测技术评估城市环境质量和生态系统健康状况，并通过这些评估结果指导城市绿地的规划与建设。具体步骤如下：
-1. **数据收集与整合**：收集环境监测数据、社会经济数据和生态数据，利用GIS技术整合这些数据。
-2. **空间分析与模型构建**：利用GIS软件对数据进行空间分布分析，构建环境质量模型和生态系统服务评估模型。
-3. **评估与诊断**：评估城市的环境质量状态和生态系统健康状况，识别生态脆弱区和恢复潜力区。
-4. **规划与设计**：基于评估结果，指导城市绿地的规划与建设，增强城市的自然属性和生态服务功能。
-5. **实施与管理**：分阶段实施城市绿地建设，建立长期的环境监测体系，评估项目效果。
-6. **持续优化**：建立反馈机制，利用新技术提高城市环境管理和生态系统健康管理的效率。
-### 3. 城市交通网络与居民出行模式
-**数学教授分析：**
-通过分析城市交通网络的空间布局和居民出行模式，识别交通拥堵的瓶颈并提出缓解方案。具体步骤如下：
-1. **数据收集与处理**：收集交通数据和居民出行模式数据，进行预处理。
-2. **交通网络建模**：利用图论对城市交通网络进行建模，分析网络的连通性、可达性和网络效率。
-3. **出行模式分析**：分析居民出行的时间分布、空间分布和出行链，识别高峰时段和热点区域。
-4. **拥堵识别与量化**：识别交通瓶颈，量化拥堵程度，评估拥堵对居民出行时间、环境质量、经济效益等方面的影响。
-5. **优化与策略制定**：提出缓解方案，如道路基础设施改善、交通管理优化、公共交通优化和出行行为干预。
-6. **方案评估与实施**：评估方案的技术可行性、经济成本和环境影响，选择最优方案并实施。
-### 4. 城市灾害风险管理与应急响应
-**人工智能教授分析：**
-利用地理空间技术评估城市面临的主要灾害（如洪水、地震、城市内涝等）的风险，制定有效的应急预案，提高城市韧性。具体步骤如下：
-1. **数据收集与处理**：收集灾害历史数据、地形数据、建筑物数据等，形成一个全面的城市灾害管理数据库。
-2. **风险评估**：利用GIS和遥感技术评估不同区域的灾害风险，绘制风险地图。
-3. **应急预案制定**：制定详细的应急预案，包括预警系统、疏散路线、救援资源分配等。
-4. **模拟与演练**：通过模拟演练，评估预案的实际效果，及时调整。
-5. **持续监测与更新**：建立长期的灾害监测体系，定期更新风险评估和应急预案。
-### 5. 城市化进程中的人文地理变化
-**地理学教授分析：**
-分析城市化进程中的人口迁移、文化融合等人文地理现象，理解其对城市社会结构、经济发展的影响。具体步骤如下：
-1. **数据收集与处理**：收集人口迁移、文化融合等相关数据，利用GIS技术进行空间分析。
-2. **人口迁移分析**：分析人口迁移的规律和趋势，识别主要的迁入和迁出区域。
-3. **文化融合分析**：研究不同文化群体的融合情况，评估文化多样性的社会影响。
-4. **社会影响评估**：评估人口迁移和文化融合对城市社会结构、经济发展的影响。
-5. **规划建议**：提出合理的城市功能区规划建议，促进社会包容性，优化公共服务设施布局，设计多文化公共空间，支持社区发展项目，制定包容性政策。
-通过上述分析和规划建议，我们可以更有效地应对城市治理中的各个核心问题，促进城市的可持续发展和社会和谐。</t>
-  </si>
-  <si>
-    <t>从生物学的角度来看，城市治理中的生物多样性保护和生态系统健康的维护是非常重要的环节，它们不仅影响着城市的可持续发展，还直接关系到居民的生活质量和城市生态安全。以下是针对这两个核心问题的具体分析和解决方法：
-### 生物多样性保护
-1. **生物多样性现状评估**：首先，需要对城市内的生物多样性进行系统的调查和评估。这包括对植物、动物、微生物等各个层次的生物多样性进行调查，收集物种丰富度、遗传多样性和生态系统多样性等数据。可以借助GIS技术和遥感技术，绘制出生物多样性热点图和威胁区域图。
-2. **生态廊道与栖息地建设**：根据生物多样性评估的结果，规划和建设生态廊道，连接分散的自然保护区、城市绿地和公园，为野生动植物提供迁徙和交流的通道。同时，恢复和建设适宜的栖息地，如湿地、林地、草原等，以支持多样化的物种生存。
-3. **生物多样性保护政策与法规**：制定或完善生物多样性保护的相关政策和法规，确保城市开发和建设活动不会破坏重要的生物多样性资源。加强对珍稀濒危物种的保护，实施物种重引入项目，促进生态系统的自然恢复。
-4. **公众参与与教育**：提高公众对生物多样性保护重要性的认识，鼓励社会各界参与生物多样性保护活动。通过教育和宣传活动，提升居民的环境保护意识，形成良好的生态保护氛围。
-### 生态系统健康
-1. **生态系统服务评估**：利用生态系统服务评估模型，如InVEST（Integrated Valuation of Ecosystem Services and Tradeoffs）等工具，评估城市生态系统提供的调节服务（如空气净化、水循环）、供给服务（如食物、原材料）、支持服务（如土壤形成、养分循环）和文化服务（如休闲娱乐、美学享受）等。这有助于理解生态系统对城市居民福祉的贡献。
-2. **生态恢复项目**：针对城市中的生态退化区域，实施生态恢复项目。例如，恢复受污染的河流和湖泊，重建受损的湿地生态系统，种植本地植物，改善土壤质量等。通过这些措施，恢复生态系统的功能，提高其对环境变化的适应能力。
-3. **绿色基础设施建设**：推广绿色基础设施的概念，如绿色屋顶、垂直花园、雨水花园等，这些设施不仅能减少城市热岛效应，还能提高城市绿地面积，增加生物多样性，同时提高城市的雨水管理能力，减少洪水风险。
-4. **生态监测与评估**：建立长期的生态系统健康监测体系，定期评估城市生态系统的健康状况。监测数据可以用于指导生态管理和保护决策，及时调整保护策略，确保生态系统的持续健康。
-5. **跨学科合作与创新**：城市生态系统健康问题的解决需要跨学科的合作，生物学家可以与地理学家、环境科学家、城市规划师、社会学家等合作，共同研究和解决城市生态系统面临的复杂问题。同时，鼓励科技创新，利用新技术如物联网、大数据分析等，提高生态管理的效率和效果。
-通过上述措施，可以有效地保护城市生物多样性，维护生态系统的健康，促进城市的可持续发展。这不仅需要政府的领导和支持，还需要社会各界的共同努力。</t>
-  </si>
-  <si>
-    <t>从物理学的角度来看，城市交通网络和居民出行模式的问题可以被看作是一个复杂系统的优化问题。这个系统涉及到多个层面的相互作用，包括交通基础设施的物理布局、交通流的动态特性、以及居民的出行偏好和决策过程。我们可以利用物理学中的概念和方法，如统计力学、流体力学以及复杂网络理论，来理解和解决这些问题。
-### 1. 城市交通网络的物理布局
-城市交通网络的物理布局直接影响了城市的交通效率。我们可以利用流体力学中的流线概念来分析道路网络的连通性，通过构建交通网络的数学模型（例如使用图论中的图结构），来识别网络中的关键节点和路径。这有助于理解城市交通网络中的瓶颈位置，比如交通流量大但通行能力有限的路段。
-### 2. 交通流的动态特性
-交通流的动态特性，如车流速度、流量和密度之间的关系，可以借鉴流体力学中的基本原理来建模。物理学中的相变理论对于理解交通流从自由流状态到拥堵状态的转变特别有用。通过建立微观交通流模型，模拟每个车辆的行为，可以预测特定交通条件下的交通状态，这有助于城市规划者制定有效的交通管理策略。
-### 3. 居民出行模式的分析
-居民的出行模式受到多种因素的影响，包括个人偏好、交通成本、出行时间和目的地的可达性等。利用统计力学中的方法，我们可以对大量出行者的出行行为进行统计分析，以识别出行模式的规律性。此外，复杂网络理论可以帮助我们理解出行者如何在不同的交通方式之间做出选择，以及这些选择如何影响整个交通网络的效率。
-### 解决方法
-1. **优化交通网络结构**：基于交通网络的物理模型，优化城市道路的设计，增加交通要道的通行能力，减少不必要的交通瓶颈。
-2. **智能交通系统**：开发智能交通管理系统，利用先进的传感技术和数据分析技术，实时调整交通信号灯的时间，优化交通流，减少拥堵。
-3. **促进公共交通**：通过增加公共交通工具的频率和覆盖范围，提高公共交通的便利性和吸引力，鼓励居民减少使用私家车出行。
-4. **出行行为干预**：利用行为经济学的原理，设计激励措施，比如高峰时段的拥堵收费、低排放区等，以改变居民的出行习惯，减少私家车的使用。
-5. **城市规划**：在城市规划中考虑交通因素，促进多用途土地利用，减少居民的出行距离，例如通过建设混合用途的社区，使居民能够在较短的距离内完成日常活动。
-通过上述方法，我们可以从物理学的角度出发，系统地分析城市交通网络和居民出行模式的问题，并提出有效的解决方案，以促进城市的可持续发展和提高居民的生活质量。</t>
-  </si>
-  <si>
-    <t>从化学的角度来看，城市治理中涉及的城市环境质量评估与改善问题主要集中在空气污染、水体污染、土壤污染和垃圾处理等方面。这些问题是城市可持续发展的重要障碍，需要通过科学的方法进行评估与改善。以下是针对这些问题的分析及相应的解决方法：
-### 1. 空气污染
-**问题分析**：城市空气污染主要来源于汽车尾气、工业排放、建筑尘埃等。污染物包括二氧化硫(SO2)、氮氧化物(NOx)、颗粒物（PM2.5和PM10）、一氧化碳(CO)等，它们会对人类健康和大气环境造成负面影响。
-**解决方法**：
-- **推广清洁能源**：在城市交通中推广电动汽车和混合动力汽车，减少化石燃料的使用；在工业生产中采用清洁能源和低排放技术。
-- **改进催化技术**：开发高效的催化剂，例如使用贵金属催化剂或过渡金属催化剂来净化汽车尾气中的NOx和CO。
-- **增加绿化**：植物可以通过光合作用吸收大气中的CO2，同时释放O2，减少空气中的污染物；城市绿肺还可以改善微气候，减少热岛效应。
-- **提高公众意识**：通过教育和宣传提高居民对于空气污染的认识，鼓励使用公共交通，减少私家车出行。
-### 2. 水体污染
-**问题分析**：水体污染主要来自工业废水、生活污水、农业径流等，这些污染物质可包括重金属、有机污染物、营养盐等，严重时会导致水体富营养化，影响水生生态系统。
-**解决方法**：
-- **污水处理技术**：采用高效的生物处理技术、化学沉淀技术、膜分离技术等，确保污水处理达到排放标准。
-- **绿色化学**：在生产过程中使用绿色化学原理，减少有害物质的产生，例如使用生物降解材料替代传统塑料。
-- **湿地建设**：利用湿地的自然净化功能，建立人工湿地系统，处理城市污水，同时提供生态服务。
-- **法律法规**：制定严格的水环境保护法律法规，对污染行为进行有效监管和处罚。
-### 3. 土壤污染
-**问题分析**：土壤污染主要由重金属、有机污染物等引起，这些污染物可能来自工业废弃物、农药残留、化肥过度使用等。污染的土壤不仅影响农作物的生长，还可能通过食物链影响人类健康。
-**解决方法**：
-- **土壤修复技术**：采用物理、化学或生物方法修复受污染的土壤，如土壤淋洗、土壤热解吸、植物修复等。
-- **合理施肥**：推广有机肥的使用，减少化肥的过量使用，避免土壤退化和污染。
-- **土地利用规划**：合理规划土地使用，避免在敏感或重要生态区域进行可能造成土壤污染的工业活动。
-- **监测与评估**：建立土壤污染监测网络，定期评估土壤质量，及时发现污染问题。
-### 4. 垃圾处理
-**问题分析**：城市垃圾主要包括生活垃圾、建筑垃圾、工业垃圾等，不当处理会导致环境污染，占用土地资源，影响城市美观。
-**解决方法**：
-- **垃圾分类**：推广垃圾分类制度，提高回收利用率，减少垃圾填埋量。
-- **垃圾焚烧**：采用先进的垃圾焚烧技术，将垃圾转化为能源，同时减少二次污染。
-- **生物处理**：对于有机垃圾，可以采用堆肥或生物发酵技术，转化为有机肥料。
-- **资源化利用**：鼓励资源循环利用，如将建筑垃圾制成再生建筑材料，实现资源的高效利用。
-### 结论
-城市环境质量的评估与改善是一个系统工程，需要政府、企业、科研机构和公众的共同努力。通过科学技术的应用和管理措施的优化，可以有效改善城市环境质量，促进城市的可持续发展。化学在这一过程中发挥着关键作用，从设计更环保的材料到开发污染治理技术，化学家们正在为创造一个更清洁、更健康的城市环境作出贡献。</t>
-  </si>
-  <si>
-    <t>### 从不同学科角度补充城市治理的分析
-#### 1. 生物学：生物多样性保护与生态系统健康
-**问题分析**：
-- **生物多样性现状评估**：对城市内的植物、动物、微生物等进行系统调查，收集物种丰富度、遗传多样性和生态系统多样性等数据，绘制生物多样性热点图和威胁区域图。
-- **生态廊道与栖息地建设**：规划和建设生态廊道，连接自然保护区、城市绿地和公园，恢复和建设适宜的栖息地，如湿地、林地、草原等。
-- **生物多样性保护政策与法规**：制定或完善相关法律法规，加强对珍稀濒危物种的保护，实施物种重引入项目。
-- **公众参与与教育**：提高公众对生物多样性保护的认识，鼓励社会各界参与保护活动，提升居民的环境保护意识。
-**生态系统健康**：
-- **生态系统服务评估**：利用生态系统服务评估模型评估城市生态系统提供的服务，如空气净化、水循环、食物供给等。
-- **生态恢复项目**：恢复受污染的河流和湖泊，重建受损的湿地生态系统，种植本地植物，改善土壤质量。
-- **绿色基础设施建设**：推广绿色屋顶、垂直花园、雨水花园等，减少城市热岛效应，提高城市绿地面积，增加生物多样性。
-- **生态监测与评估**：建立长期的生态系统健康监测体系，评估城市生态系统的健康状况。
-- **跨学科合作与创新**：鼓励跨学科合作，利用新技术提高生态管理的效率。
-#### 2. 物理学：城市交通网络与居民出行模式
-**问题分析**：
-- **交通网络的物理布局**：利用流体力学中的流线概念分析道路网络的连通性，识别网络中的关键节点和路径。
-- **交通流的动态特性**：借鉴流体力学中的基本原理建模交通流，利用相变理论理解交通流从自由流状态到拥堵状态的转变。
-- **居民出行模式**：利用统计力学方法分析大量出行者的出行行为，识别出行模式的规律性，利用复杂网络理论理解出行者的选择行为。
-**解决方法**：
-- **优化交通网络结构**：基于物理模型优化城市道路设计，增加交通要道的通行能力，减少交通瓶颈。
-- **智能交通系统**：开发智能交通管理系统，利用先进的传感技术和数据分析技术，实时调整交通信号灯的时间，优化交通流，减少拥堵。
-- **促进公共交通**：增加公共交通工具的频率和覆盖范围，提高公共交通的便利性和吸引力，鼓励居民减少使用私家车。
-- **出行行为干预**：设计激励措施，如高峰时段的拥堵收费、低排放区等，改变居民的出行习惯，减少私家车的使用。
-- **城市规划**：在城市规划中考虑交通因素，促进多用途土地利用，减少居民的出行距离。
-#### 3. 化学：城市环境质量评估与改善
-**问题分析**：
-- **空气污染**：主要来源于汽车尾气、工业排放、建筑尘埃等，污染物包括二氧化硫(SO2)、氮氧化物(NOx)、颗粒物（PM2.5和PM10）、一氧化碳(CO)等。
-- **水体污染**：主要来自工业废水、生活污水、农业径流等，污染物包括重金属、有机污染物、营养盐等。
-- **土壤污染**：主要由重金属、有机污染物等引起，来自工业废弃物、农药残留、化肥过度使用等。
-- **垃圾处理**：主要包括生活垃圾、建筑垃圾、工业垃圾等，不当处理会导致环境污染，占用土地资源。
-**解决方法**：
-- **空气污染**：推广清洁能源，改进催化技术，增加绿化，提高公众意识。
-- **水体污染**：采用高效的污水处理技术，推广绿色化学，建设人工湿地，制定严格的法律法规。
-- **土壤污染**：采用土壤修复技术，合理施肥，合理规划土地使用，建立监测网络。
-- **垃圾处理**：推广垃圾分类，采用先进的垃圾焚烧技术，生物处理有机垃圾，鼓励资源循环利用。
-### 结论
-城市治理是一个多学科交叉的综合性问题，需要政府、企业、科研机构和公众的共同努力。通过科学技术的应用和管理措施的优化，可以有效解决城市治理中的各种问题，促进城市的可持续发展和社会和谐。从生物学、物理学和化学的角度出发，我们可以提供新的变量、机制、模型和可落地路径，为城市治理提供全面的解决方案。</t>
+    <t>城市治理的核心子问题可以从地理学、经济学、社会学等多个学科角度提炼，以确保全面而具体地探讨这一广泛议题。以下是五个明确、具体的子问题，每个子问题都适合由不同学科的专家进行深入分析，同时这些子问题之间具备关联性，共同构成了解决城市治理这一大问题的基础：
+1. **城市空间结构与功能区布局优化**：从地理学的角度出发，探讨城市内部的空间布局如何影响城市功能区的运作效率，以及如何通过优化空间结构来促进城市的可持续发展和居民生活质量。例如，研究商业区、居住区、工业区等的合理分布，以及绿地、交通网络等基础设施的规划，都是这一子问题的重要内容。
+2. **城市经济增长与就业机会创造**：经济学者可以从城市经济发展的角度，分析城市治理政策如何促进经济增长和创造就业机会。这包括对城市产业布局、投资环境、税收政策等的评估，以及这些政策如何影响城市经济的竞争力和居民的就业情况。
+3. **城市社会包容性与社区参与**：社会学视角关注的是城市治理中的社会问题，特别是如何增强城市的社会包容性和提高社区居民的参与度。这涉及到城市中不同社会群体（如低收入家庭、少数族裔、老年人等）的权益保护，以及如何通过社区参与机制促进公共事务的民主决策过程。
+4. **城市环境管理与生态可持续性**：环境科学家可以从生态保护和资源管理的角度，研究城市治理中如何平衡经济发展与环境保护，特别是如何应对城市化进程中出现的环境污染、生态破坏等问题，提出提高城市生态系统服务功能和实现绿色发展的策略。
+5. **城市安全与应急管理**：公共管理专家可以从城市安全的角度，探讨城市治理中如何有效预防和应对自然灾害、公共卫生事件等突发事件，确保城市运行的安全性和稳定性。这包括城市基础设施的韧性建设、应急预案的制定与演练、以及危机管理中的多部门协作机制。
+这些问题不仅各自独立，而且相互之间存在着密切的联系，如经济活动对空间结构的影响、社会包容性对经济增长的支持作用、环境质量对居民健康的长远影响等，这些关联性构成了城市治理系统性的研究框架。</t>
+  </si>
+  <si>
+    <t>1. **城市空间结构与功能区布局优化**：从地理学的角度出发，探讨城市内部的空间布局如何影响城市功能区的运作效率，以及如何通过优化空间结构来促进城市的可持续发展和居民生活质量。例如，研究商业区、居住区、工业区等的合理分布，以及绿地、交通网络等基础设施的规划，都是这一子问题的重要内容。
+2. **城市经济增长与就业机会创造**：经济学者可以从城市经济发展的角度，分析城市治理政策如何促进经济增长和创造就业机会。这包括对城市产业布局、投资环境、税收政策等的评估，以及这些政策如何影响城市经济的竞争力和居民的就业情况。
+3. **城市社会包容性与社区参与**：社会学视角关注的是城市治理中的社会问题，特别是如何增强城市的社会包容性和提高社区居民的参与度。这涉及到城市中不同社会群体（如低收入家庭、少数族裔、老年人等）的权益保护，以及如何通过社区参与机制促进公共事务的民主决策过程。
+4. **城市环境管理与生态可持续性**：环境科学家可以从生态保护和资源管理的角度，研究城市治理中如何平衡经济发展与环境保护，特别是如何应对城市化进程中出现的环境污染、生态破坏等问题，提出提高城市生态系统服务功能和实现绿色发展的策略。
+5. **城市安全与应急管理**：公共管理专家可以从城市安全的角度，探讨城市治理中如何有效预防和应对自然灾害、公共卫生事件等突发事件，确保城市运行的安全性和稳定性。这包括城市基础设施的韧性建设、应急预案的制定与演练、以及危机管理中的多部门协作机制。</t>
+  </si>
+  <si>
+    <t>从地理学的角度来看，城市内部的空间布局对城市功能区的运作效率有着深远的影响。城市作为一个复杂的系统，其功能区的分布直接关系到资源与服务的可达性、环境质量、经济活动的效率以及社会的和谐度。合理规划城市空间结构，不仅可以提高城市运作效率，还能促进城市的可持续发展和提升居民的生活质量。以下是几个关键方面的探讨：
+1. **功能区的合理分布**：城市中的商业区、居住区、工业区等功能区的分布应当遵循一定的地理原则，以实现资源的最大化利用。例如，商业区通常应设置在交通便利、人流量大的区域，以便吸引更多的顾客，提升商业活动的效率。居住区则应考虑与工作地点的合理距离，减少居民通勤时间，提高生活满意度。工业区的布局则需考虑到对环境的影响，避免对居住区和水源地造成污染，同时也要确保有足够的物流通道。
+2. **交通网络的优化**：交通网络是连接城市各功能区的纽带，其规划直接影响到城市的运作效率和居民的出行便捷度。高效的交通网络应该能够快速疏散人流和物流，减少交通拥堵，同时也要考虑公共交通的可达性和便利性，鼓励居民使用公共交通工具，减少私家车使用，从而降低交通排放，改善城市环境质量。
+3. **绿地和开放空间的规划**：绿地和开放空间不仅是城市景观的重要组成部分，也是城市生态系统的支柱。它们能够提供城市居民休闲娱乐的场所，同时具有调节城市气候、净化空气、防洪减灾等功能。合理的绿地和开放空间布局，可以提高城市居民的生活质量，促进身心健康，同时也为城市生物多样性保护提供支持。
+4. **环境与社会和谐**：城市空间布局还应考虑环境与社会的和谐共生。例如，通过建设低影响开发（LID）系统，减少城市化对自然环境的影响；通过规划包容性社区，促进不同社会群体之间的交流与融合，减少社会隔阂。
+为了实现上述目标，地理信息系统（GIS）等现代技术提供了强大的支持。通过GIS，城市规划者可以模拟不同的空间布局方案，分析其对交通、环境、社会等方面的影响，从而选择最优方案。此外，结合遥感技术，可以实时监测城市空间布局的变化及其对环境的影响，为城市规划提供科学依据。
+综上所述，通过优化城市内部的空间布局，不仅可以提高城市功能区的运作效率，还能促进城市的可持续发展，提升居民的生活质量。这需要城市规划者、地理学家、环境科学家以及社会各界的共同努力，综合考虑经济、社会、环境等多方面的因素，制定出科学合理的城市空间发展规划。</t>
+  </si>
+  <si>
+    <t>从城市经济发展的角度分析城市治理政策如何促进经济增长和创造就业机会，我们首先需要明确城市经济发展的几个关键因素：产业布局、投资环境、税收政策等。这些因素不仅对城市的经济竞争力有着直接的影响，还关系到居民的就业情况和生活质量。
+1. **产业布局**：合理的产业布局能够促进资源的优化配置，提高生产效率，进而推动经济增长。城市可以通过发展具有比较优势的产业来吸引投资，如高新技术产业、金融服务、文化创意等，这些产业通常具有较高的附加值和较强的创新能力，能够为城市创造更多的就业机会。此外，通过促进产业集聚，可以形成完整的产业链，降低企业的交易成本，提高整个行业的竞争力。
+2. **投资环境**：良好的投资环境是吸引国内外资本流入的关键。城市可以通过完善基础设施建设、简化行政手续、提供政策支持和财政补贴等方式，打造一个有利于企业发展的投资软环境。一个开放且稳定的市场环境能够激发企业家精神，鼓励创新，为经济增长注入动力。同时，外来投资的增加往往伴随着新岗位的创造，有助于缓解就业压力。
+3. **税收政策**：合理的税收政策对于调节经济活动、促进公平竞争具有重要作用。城市可以采取减税降费措施，降低企业运营成本，尤其是对于中小企业和初创企业，减轻其负担，增强其生存和发展能力。税收优惠还可以吸引特定行业的投资，比如对高新技术企业的税收减免，不仅能促进技术进步，还能带动相关产业链的发展，创造更多就业机会。
+4. **影响分析**：上述政策的实施将多方面影响城市经济的竞争力和居民的就业情况。首先，优化的产业结构和良好的投资环境能够吸引更多的资本和人才流入，提升城市的整体竞争力。其次，税收政策的有效运用能够在一定程度上调节经济活动，促进资源向高效率领域流动，提高经济运行效率。最后，这些政策的综合作用将直接或间接地创造大量就业机会，改善居民的生活水平。
+综上所述，城市治理政策通过优化产业布局、改善投资环境、制定合理的税收政策等措施，不仅能够促进城市经济的稳定增长，还能有效促进就业，提高居民的生活质量。然而，政策的制定和执行需要基于深入的经济分析和科学的预测，确保政策的有效性和可持续性。此外，政策实施过程中应密切关注市场反馈和社会反响，适时调整，以适应不断变化的经济环境。</t>
+  </si>
+  <si>
+    <t>在城市治理中，社会包容性和社区参与是促进社会和谐与可持续发展的重要因素。从社会学的角度来看，社会包容性是指城市能够为其所有居民，包括低收入家庭、少数族裔、老年人等不同社会群体，提供平等的机会和资源，使他们能够参与到社会经济生活中，享受城市发展的成果。而社区参与机制则是指通过制度安排和活动设计，鼓励和促进社区居民参与到公共事务的决策过程中，实现民主治理。
+为了增强城市的社交包容性，首先需要从政策层面出发，制定和实施针对弱势群体的保护和支持措施。例如，政府可以通过提供教育、培训、就业机会和社会福利，帮助低收入家庭提升自身能力，改善经济状况。对于少数族裔，应该加强文化交流和融合政策，消除歧视，促进相互理解和尊重。针对老年人，则应完善养老、医疗等服务体系，提高他们的生活质量。此外，城市规划和公共服务设施的设计也需要考虑到所有群体的需求，确保无障碍通行和使用。
+提高社区居民的参与度，则需要构建有效的沟通渠道和参与平台，让居民能够便捷地发表意见、参与讨论和监督决策过程。可以通过建立社区议事会、开展公民教育活动、利用信息技术建立在线参与平台等方式，激发居民的参与热情，培养他们的社会责任感。同时，应确保决策过程中有足够的透明度和公开性，让居民了解政策的背景、目的和影响，增强他们对公共事务的理解和支持。
+在实际操作中，城市政府和社会组织应该密切合作，共同推动社会包容性和社区参与的发展。政府应当承担领导和协调的角色，为各种社会群体提供必要的支持和资源，同时鼓励和支持社会组织、企业和个人发挥自身的积极性和创造性，通过多种方式参与到社会治理中来。通过这样的多方协作，我们可以构建一个更加包容和谐、充满活力的城市社会。</t>
+  </si>
+  <si>
+    <t>在城市治理中平衡经济发展与环境保护，特别是在应对城市化进程中出现的环境污染、生态破坏等问题时，需要采取多维度、综合性的策略。这些策略旨在提高城市生态系统的服务功能，并促进绿色发展的实现。以下是从生态保护和资源管理角度提出的具体措施：
+1. **绿色基础设施建设**：推广绿色建筑、绿色交通系统和城市绿化。通过建设更多的公园、绿地、自然保护区等，不仅能够改善城市景观，还能有效吸收二氧化碳、释放氧气，减少热岛效应，为城市居民提供休闲娱乐的场所，同时增强城市的生物多样性。
+2. **循环经济模式的推广**：鼓励企业采用循环经济模式，实现资源的高效利用和循环再利用。通过减少资源消耗、废物排放，提高资源利用率，降低环境污染。例如，工业生产过程中产生的废弃物可以作为其他企业的原料或能源，形成产业链闭环。
+3. **环境友好型技术的开发与应用**：支持环保技术的研发，如清洁能源技术、污染控制技术等。通过技术创新减少工业生产、交通运输等活动对环境的影响。例如，推广电动汽车、太阳能发电等清洁能源技术的应用，减少化石能源的依赖。
+4. **政策法规与激励机制的建立**：制定严格的环境保护法律法规，加强对环境污染行为的监管和处罚。同时，建立奖励机制，对于采取环保措施的企业和个人给予税收减免、财政补贴等激励，引导社会资源向绿色产业倾斜。
+5. **公众参与和社会教育**：提高公众环保意识，鼓励居民参与到环境保护活动中来。通过开展环保教育活动、建立社区环保项目等方式，增强市民对环保的责任感和参与度，形成全社会共同参与环境保护的良好氛围。
+6. **生态修复与保护**：对于已经受到破坏的生态环境，实施生态修复工程，恢复生态系统的健康状态。同时，加强对自然保护区、重要生态功能区的保护，确保生态系统的完整性和稳定性。
+7. **可持续城市规划**：在城市规划中融入绿色发展理念，合理规划城市空间布局，确保城市增长不会对生态环境造成不可逆转的损害。通过科学规划，实现城市空间的合理利用，促进城市与自然和谐共生。
+通过上述措施的实施，可以有效应对城市化进程中出现的环境污染和生态破坏问题，提高城市生态系统的服务功能，促进城市的绿色发展。这不仅有利于提升城市居民的生活质量，也有助于实现经济、社会与环境的可持续发展。</t>
+  </si>
+  <si>
+    <t>在城市治理中平衡经济发展与环境保护，特别是在应对城市化进程中出现的环境污染和生态破坏问题，是一项复杂而紧迫的任务。城市生态系统服务功能的提升和绿色发展的实现，需要多学科的综合研究和政策上的创新。以下是几个策略性的建议：
+1. **强化城市规划与设计的生态导向**：城市规划应充分考虑生态系统的保护与恢复，通过建立绿色廊道、生态保护区、城市绿地系统等措施，增强城市生态系统的连通性和服务功能。例如，建设海绵城市，利用自然渗透、蓄积和净化的方式管理城市雨水，减少城市洪涝灾害，同时提高水资源的利用效率。
+2. **实施绿色基础设施建设**：绿色基础设施是指利用自然元素，如植被、土壤、湿地等，来提供传统基础设施服务的一种方式。这些自然元素可以帮助处理污水、减少空气污染、提供生物多样性保护、提高城市居民的健康水平等。城市中应增加公园、社区花园、绿色屋顶等绿色空间，以改善城市环境质量。
+3. **推动低碳经济与可持续发展**：鼓励发展清洁能源，减少化石燃料的使用，通过技术创新和政策激励，促进低碳技术的发展和应用。同时，推动循环经济，减少废物产生，提高资源的循环利用率，减少对自然资源的依赖。
+4. **加强环境教育与公众参与**：提高公众的环境保护意识，鼓励公民参与城市环境的保护和改善。通过教育和培训，增强居民对可持续生活方式的理解和实践，如减少使用一次性塑料制品、参与社区绿化活动等。
+5. **完善环境法规与政策**：建立和完善环境保护法律法规体系，确保城市发展中对环境的影响得到有效的监控和管理。制定更加严格的污染物排放标准，对污染严重的企业进行处罚。同时，通过财政、税收等经济手段，鼓励企业采用环保技术和管理方法。
+6. **促进跨部门合作与国际交流**：城市环境管理需要政府各部门之间的紧密合作，同时也需要与国内外其他城市、研究机构进行经验分享和技术交流。通过国际项目的合作，引进先进的城市管理理念和技术，共同应对全球环境问题。
+通过上述策略的实施，不仅可以有效解决城市化过程中的环境问题，还能促进城市的可持续发展，提高居民的生活质量，实现经济发展与环境保护的双赢。</t>
+  </si>
+  <si>
+    <t>在城市治理中，确保城市的安全性和稳定性是一个综合性的问题，它不仅涉及到城市基础设施的建设，还包括应急管理、多部门协调机制等多个方面。从人工智能教授的视角出发，我们可以从以下几个方面探讨如何有效预防和应对自然灾害、公共卫生事件等突发事件：
+1. **城市基础设施的韧性建设**：韧性城市是指能够在灾害发生时迅速恢复，并能够从灾害中学习以增强未来应对能力的城市。这要求城市在规划和建设过程中，充分考虑到各种可能的灾害因素，采用先进的材料和技术，比如利用智能传感器网络实时监控城市关键基础设施的运行状态，通过大数据分析预测潜在的风险点，及时进行维护和升级，从而提高基础设施的耐灾能力。此外，还应加强城市绿化和水循环系统的建设，增强城市的自然环境韧性。
+2. **应急预案的制定与演练**：有效的应急预案是城市应对突发事件的基础。预案应涵盖从预警到响应、恢复的全过程，并针对不同类型的灾害制定具体措施。利用人工智能技术，可以模拟不同灾害情景下的应急响应过程，评估预案的有效性，并据此进行优化。同时，定期组织多部门参与的应急演练，不仅能够检验预案的实际操作性，还能提高相关部门和个人的应急处置能力。
+3. **危机管理中的多部门协作机制**：在危机管理中，建立有效的多部门协作机制至关重要。通过构建包括政府、企业、社会组织、公众在内的综合应急管理体系，确保各方在危机发生时能够快速响应、协同作战。人工智能在这一过程中可以发挥重要作用，比如通过建立统一的信息平台，实现数据共享和资源调配；利用机器学习算法，分析社交媒体等非结构化数据，快速捕捉公众情绪和社会动态，为决策提供支持。
+4. **公众教育与参与**：提高公众的安全意识和自救互救能力是减少灾害损失的重要途径。通过开展安全教育活动、发布科普信息、组织自救互救技能培训等方式，增强市民在危机中的应对能力。同时，鼓励公众参与城市安全治理，建立志愿者队伍，形成政府与社会共同参与的城市安全保障体系。
+5. **持续的技术创新与应用**：随着技术的发展，新的工具和方法不断涌现，为城市安全管理提供了更多可能性。例如，利用无人机进行灾后评估、通过虚拟现实技术进行应急演练等。城市管理者应持续关注技术前沿，积极探索新技术在城市管理中的应用，不断提升城市的安全管理水平。
+综上所述，通过加强基础设施韧性建设、完善应急预案、强化多部门协作、提高公众参与度以及不断创新技术应用，可以有效提升城市的安全性和稳定性，为市民提供更加安全的生活环境。</t>
+  </si>
+  <si>
+    <t>### 城市治理多学科视角分析与解决方案
+#### 1. 城市空间结构与功能区布局优化（地理学教授）
+从地理学的角度来看，城市内部的空间布局对城市功能区的运作效率有着深远的影响。合理规划城市空间结构，不仅可以提高城市运作效率，还能促进城市的可持续发展和提升居民的生活质量。具体措施包括：
+- **功能区的合理分布**：商业区应设置在交通便利、人流量大的区域，居住区应考虑与工作地点的合理距离，工业区的布局需考虑到对环境的影响。
+- **交通网络的优化**：高效的交通网络应能够快速疏散人流和物流，减少交通拥堵，同时鼓励居民使用公共交通工具，减少私家车使用。
+- **绿地和开放空间的规划**：合理的绿地和开放空间布局可以提高城市居民的生活质量，促进身心健康，同时为城市生物多样性保护提供支持。
+- **环境与社会和谐**：通过建设低影响开发（LID）系统和规划包容性社区，减少城市化对自然环境的影响，促进不同社会群体之间的交流与融合。
+#### 2. 城市经济增长与就业机会创造（数学教授）
+从城市经济发展的角度，城市治理政策可以通过以下措施促进经济增长和创造就业机会：
+- **产业布局**：发展具有比较优势的产业，如高新技术产业、金融服务、文化创意等，形成完整的产业链，提高生产效率。
+- **投资环境**：完善基础设施建设，简化行政手续，提供政策支持和财政补贴，打造有利于企业发展的投资软环境。
+- **税收政策**：采取减税降费措施，减轻企业负担，特别是对中小企业和初创企业，通过税收优惠吸引特定行业的投资。
+- **影响分析**：优化的产业结构和良好的投资环境能够吸引更多的资本和人才流入，提高城市的整体竞争力，创造大量就业机会。
+#### 3. 城市社会包容性与社区参与（人工智能教授）
+从社会学的角度，城市治理中的社会包容性和社区参与可以通过以下措施增强：
+- **政策支持**：制定和实施针对弱势群体的保护和支持措施，如提供教育、培训、就业机会和社会福利。
+- **文化交流**：加强文化交流和融合政策，消除歧视，促进不同社会群体之间的理解和尊重。
+- **社区参与**：建立社区议事会、开展公民教育活动、利用信息技术建立在线参与平台，增强居民的参与热情和责任感。
+- **多方协作**：政府、社会组织、企业和个人共同推动社会包容性和社区参与的发展，形成全社会共同参与的治理机制。
+#### 4. 城市环境管理与生态可持续性（地理学教授）
+从生态保护和资源管理的角度，城市治理可以通过以下措施平衡经济发展与环境保护：
+- **绿色基础设施建设**：推广绿色建筑、绿色交通系统和城市绿化，建设公园、绿地、自然保护区等。
+- **循环经济模式**：鼓励企业采用循环经济模式，实现资源的高效利用和循环再利用。
+- **环境友好型技术**：支持环保技术的研发，如清洁能源技术、污染控制技术，减少工业生产和交通运输对环境的影响。
+- **政策法规与激励机制**：制定严格的环境保护法律法规，加强对环境污染行为的监管和处罚，同时建立奖励机制，引导社会资源向绿色产业倾斜。
+- **公众参与和社会教育**：提高公众环保意识，鼓励居民参与环境保护活动，形成全社会共同参与的良好氛围。
+#### 5. 城市安全与应急管理（人工智能教授）
+从城市安全的角度，城市治理可以通过以下措施有效预防和应对自然灾害、公共卫生事件等突发事件：
+- **基础设施韧性建设**：采用智能传感器网络实时监控城市关键基础设施的运行状态，通过大数据分析预测潜在的风险点，及时进行维护和升级。
+- **应急预案的制定与演练**：利用人工智能技术模拟不同灾害情景下的应急响应过程，评估预案的有效性，并定期组织多部门参与的应急演练。
+- **多部门协作机制**：构建包括政府、企业、社会组织、公众在内的综合应急管理体系，确保各方在危机发生时能够快速响应、协同作战。
+- **公众教育与参与**：通过开展安全教育活动、发布科普信息、组织自救互救技能培训等方式，增强市民在危机中的应对能力。
+- **技术创新与应用**：持续关注技术前沿，积极探索新技术在城市管理中的应用，提升城市的安全管理水平。
+通过上述多学科视角的分析和综合措施的实施，可以全面、系统地提升城市治理的效率和效果，实现城市的可持续发展，提高居民的生活质量。</t>
+  </si>
+  <si>
+    <t>从地理学的角度来看，城市内部的空间布局对于城市功能区的运作效率具有至关重要的影响。合理的空间布局不仅能够提高城市资源的利用效率，还能促进城市的可持续发展，提升居民的生活质量。以下是一些具体的措施和建议，旨在通过优化城市空间结构来实现这些目标：
+1. **多功能混合开发**：鼓励在城市不同区域实施多功能混合开发，即将居住、工作、休闲等功能区混合布局。这样做可以减少居民通勤的时间和距离，降低交通压力，同时增加社区的活力。例如，在大型商业区附近规划住宅区，使得居民能够在比较近的距离内完成生活和工作的需求。
+2. **绿地与开放空间的合理规划**：城市中的绿地和开放空间对于改善城市环境、提供休闲场所和促进居民健康至关重要。应根据城市人口分布和活动需求，合理规划公园、绿地和步行道等，确保每个居民区附近都有足够的公共绿地。此外，通过增加屋顶绿化和垂直绿化等措施，可以有效提高城市的绿化率，改善城市微气候。
+3. **优化交通网络**：高效的交通系统是连接城市各功能区的纽带，对于提高城市的运作效率至关重要。应根据城市的空间布局和发展规划，优化道路网络，发展公共交通系统，减少交通拥堵。例如，增加公共交通线路的密度，特别是在人口密集的商业区和居住区之间，以及建设快速公交系统（BRT）或地铁等。
+4. **智能交通管理**：利用现代信息技术，如地理信息系统（GIS）、遥感技术和大数据分析，对城市交通流量进行实时监控和智能调度，可以有效减少交通拥堵，提高交通系统的运行效率。例如，实施智能信号灯控制，根据实时交通流量调整信号灯的时序，以优化交通流。
+5. **促进低碳出行**：鼓励使用低碳出行方式，如骑行、步行和公共交通，减少私家车的使用，以降低城市交通对环境的影响。可以通过建设更多的自行车道、人行道，提供便利的自行车共享服务等措施来实现这一目标。
+6. **历史与文化保护**：在城市空间布局优化过程中，应当考虑到对历史文化遗产的保护，避免在开发过程中破坏有价值的历史遗迹。可以通过划定历史文化保护区，限制在这些区域内的建设活动，同时利用这些文化遗产发展文化旅游，增强城市的吸引力。
+7. **社区参与和社会公平**：在城市空间布局和功能区优化的过程中，应当积极听取社区居民的意见和建议，确保规划方案能够满足不同群体的需求，促进社会公平。例如，通过公开听证会、在线调查等形式，收集居民对规划方案的意见，确保规划的透明度和参与度。
+通过上述措施，可以有效优化城市的空间结构，提高城市功能区的运作效率，促进城市的可持续发展，同时提升居民的生活质量。</t>
+  </si>
+  <si>
+    <t>从城市经济发展的角度来看，城市治理政策对于促进经济增长和创造就业机会具有关键作用。这些政策不仅仅涉及经济层面，还需要与社会、文化、环境等多维度相结合，以形成一个有利于城市可持续发展的综合政策体系。以下是具体的措施和建议：
+1. **优化产业布局与结构**：
+   - **发展特色产业**：根据城市资源和区位优势，培育和发展具有竞争力的特色产业，如高新技术产业、文化旅游业、现代物流业等，通过产业集群效应吸引投资，增加就业。
+   - **促进产业升级**：支持传统产业的技术改造和升级，提高产业链的附加值，通过政策引导和支持，鼓励企业加大研发投入，提升产品质量和品牌影响力。
+2. **改善投资环境**：
+   - **简化行政程序**：精简投资审批流程，提高政府服务效率，降低企业的制度性交易成本。
+   - **加强基础设施建设**：完善交通、通信、水电等基础设施，为企业发展提供便利条件。
+   - **提供税收优惠**：对符合城市产业发展方向的企业给予税收减免或补贴，减轻企业负担，激发市场活力。
+3. **促进科技创新与人才吸引**：
+   - **建设创新平台**：支持科研机构和大学与企业合作，建立技术创新平台，推动科技成果的转化应用。
+   - **实施人才政策**：出台吸引高端人才的政策，如住房补贴、子女教育优惠等，为城市经济发展提供智力支持。
+4. **支持中小企业发展**：
+   - **提供金融支持**：通过设立中小企业发展基金、担保基金等方式，解决中小企业融资难的问题。
+   - **开展创业培训**：为创业者提供必要的商业知识、管理技能和市场信息，降低创业风险。
+5. **强化就业服务与培训**：
+   - **建立就业服务体系**：构建覆盖全市的就业信息网络，为求职者提供岗位信息、职业指导等服务。
+   - **开展职业技能培训**：针对市场需求，开展多层次的职业技能培训，提高劳动力的就业能力和竞争力。
+6. **促进区域协调发展**：
+   - **加强区域合作**：推动城市与周边区域的协调发展，通过共建产业园区、共享基础设施等方式，实现资源共享和优势互补。
+   - **促进城乡一体化**：加大对农村地区的投入，改善农村基础设施，促进城乡经济的平衡发展，为城市提供稳定的劳动力来源。
+通过上述措施，可以有效促进城市经济增长，创造更多的就业机会，提高居民的生活水平，同时也有助于城市经济的可持续发展和社会的和谐稳定。这些措施的实施需要城市政府、企业和居民的共同努力，形成良好的发展生态。</t>
+  </si>
+  <si>
+    <t>从社会学的角度来看，城市治理中的社会包容性与社区参与是构建和谐社会、促进社会公平与正义的关键因素。在快速城市化的进程中，确保所有社会群体，尤其是低收入家庭、少数族裔和老年人等弱势群体，能够平等地参与城市生活和发展，对于实现可持续的城市发展具有重要意义。以下是从社会学角度提出的具体措施和建议，旨在增强城市治理中的社会包容性和社区参与：
+1. **建立多元参与的决策机制**：
+   - **设立社区咨询委员会**：在城市规划、公共服务提供等决策过程中设立社区咨询委员会，确保不同社会群体的代表能够参与决策过程，反映他们的需求和意见。
+   - **开展公众听证会**：定期举行公众听证会，邀请社区居民直接表达意见和建议，增强决策的透明度和公众参与度。
+   - **利用数字平台**：通过社交媒体、在线论坛等数字平台，提供便捷的渠道让社区居民能够参与公共事务讨论，特别是为行动不便、地理上偏远的群体提供便利。
+2. **促进社会融合和社会资本的建设**：
+   - **开展社区活动**：通过组织文化、体育、教育等各类社区活动，促进不同背景居民之间的交流与互动，增强社区凝聚力。
+   - **提供培训和支持**：为社区居民提供技能培训、创业支持等服务，特别是针对低收入家庭和少数族裔，帮助他们提升自身能力，改善生活条件。
+   - **建立社区基金**：设立专项基金支持社区项目，鼓励居民自下而上地提出并实施改善社区环境、促进社会融合的计划。
+3. **加强信息的可获取性和透明度**：
+   - **建立信息公开平台**：通过官方网站、社区公告板等方式，及时公开城市治理的相关信息，包括政策、项目进展、财务报告等，确保信息的透明度。
+   - **开展公民教育**：通过学校、社区中心等渠道，开展公民教育项目，提高居民对城市治理过程的了解，培养他们的参与意识和能力。
+   - **提供多语言服务**：在公共服务和信息传播中提供多种语言支持，特别是对于语言障碍的少数族裔，确保他们能够获取必要的信息和服务。
+4. **优化公共服务，确保公平可及**：
+   - **推进公共服务均等化**：确保所有社区，尤其是边缘化社区，能够获得高质量的教育、医疗、交通等公共服务，减少城乡、贫富之间的公共服务差距。
+   - **建立反馈机制**：建立有效的反馈机制，让社区居民能够就公共服务的质量和效率提出意见，及时进行改进。
+   - **开展专项支持计划**：针对特定群体的需求，开展专项支持计划，如老年人关怀服务、青少年辅导项目等，确保这些群体能够享受到针对性的服务。
+5. **强化法律和政策支持**：
+   - **制定包容性政策**：在城市规划、住房、就业等领域的政策制定中，充分考虑社会包容性原则，确保政策能够惠及所有社会群体。
+   - **加强法律保护**：通过立法或行政措施，保护低收入家庭、少数族裔、老年人等群体的合法权益，防止歧视和不公。
+   - **实施监督和评估**：建立监督和评估机制，定期对城市治理中的社会包容性政策和措施进行评估，确保其有效性和可持续性。
+通过上述措施的实施，可以有效增强城市治理中的社会包容性和社区参与，促进社会的和谐与进步。这些措施不仅有助于解决当前的社会问题，也为城市的长期发展奠定了坚实的基础。</t>
+  </si>
+  <si>
+    <t>在城市治理中，平衡经济发展与环境保护是一项复杂的挑战，特别是在城市化进程中，环境污染和生态破坏等问题日益突出。为了实现城市的绿色发展，我们需要从生态保护和资源管理的角度出发，综合考虑生态系统的空间分布与人类活动的相互作用，采取一系列策略来提高城市生态系统服务功能。以下是一些具体的建议：
+1. **规划先行，科学布局**：在城市规划中融入生态优先理念，合理布局城市功能区，确保生态保护红线，避免盲目扩张和过度开发。通过生态敏感性分析、生态廊道规划等手段，优化城市空间结构，保护重要生态节点和生态过程。
+2. **绿色基础设施建设**：构建城市绿色基础设施网络，包括城市绿地、湿地公园、生态廊道等，这些不仅能够提供休闲娱乐的空间，还能有效增强城市对污染物的吸收和净化能力，改善城市微气候，提升城市居民的生活质量。
+3. **污染防治与修复**：针对城市化过程中产生的各类污染问题，如水体污染、大气污染、土壤污染等，实施源头控制与末端治理相结合的策略，同时开展生态修复工作，恢复受损的生态环境，提高生态系统的自我恢复能力。
+4. **资源高效利用**：推动循环经济，促进资源的减量化、再利用和资源化，减少资源消耗和废物产生。例如，推广绿色建筑和节能技术，鼓励使用可再生能源，减少对化石燃料的依赖。
+5. **公众参与与教育**：加强环境保护意识的普及教育，鼓励公众参与环境保护活动，建立多元化的合作机制，形成政府、企业和公众共同参与的城市环境治理格局。
+6. **科技支撑与创新驱动**：利用遥感、GIS等现代信息技术，监测城市生态状况，评估生态服务价值，为城市规划和管理提供科学依据。同时，支持和鼓励生态友好型技术和产品的研发，推动城市绿色技术的创新和应用。
+7. **政策支持与法律保障**：完善相关政策法规，为生态保护和资源管理提供法律保障，通过财税优惠、补贴等经济手段激励企业和个人采取环保行为，构建有利于绿色发展的政策环境。
+综上所述，通过上述策略的实施，可以在促进城市经济发展的同时，有效保护和恢复生态环境，实现人与自然和谐共生的城市绿色发展目标。</t>
+  </si>
+  <si>
+    <t>从城市安全的角度，城市治理中有效预防和应对自然灾害、公共卫生事件等突发事件，确保城市运行的安全性和稳定性，是一项复杂而多面的任务。这不仅需要政府的积极参与，还需要社会各界的共同努力。以下是一些具体的措施和建议：
+1. **增强城市基础设施的韧性**：城市基础设施是城市安全的基石。加强基础设施的建设，使其在面对自然灾害时能够保持基本功能，减少灾害带来的影响。例如，提高建筑物的抗震标准，建设防洪设施，确保供水、供电和通信系统的韧性。利用人工智能技术进行基础设施状态的监控和预测，提前发现潜在风险，及时进行维护和加固。
+2. **制定和完善应急预案**：建立全面的应急预案体系，包括自然灾害、公共卫生事件等各类突发事件的应对措施。预案应详细、具体，具有可操作性，并且要定期更新，以适应城市发展的变化。利用人工智能技术辅助预案的制定，通过模拟不同情景下的应急响应，优化预案内容。
+3. **加强应急演练**：定期组织应急演练，提高政府、企业和市民的应急处置能力。演练应包括不同层级的参与者，确保在突发事件发生时，各方能够迅速响应，协同作战。通过人工智能技术分析演练数据，评估演练效果，提出改进措施。
+4. **建立多部门协作机制**：城市应急管理涉及多个部门，包括但不限于应急管理、公安、消防、卫生、交通等部门。建立多部门之间的信息共享和快速响应机制，确保信息的及时传递和资源的有效调配。利用人工智能技术搭建信息平台，实现跨部门的信息整合和决策支持。
+5. **提高公众安全意识和参与度**：通过教育和培训提高市民的安全意识和自救互救能力。利用媒体和社交平台普及安全知识，发布预警信息，指导市民在突发事件中的正确应对措施。建立志愿者网络，鼓励市民参与社区的安全管理和应急响应。
+6. **利用科技手段提升城市管理效能**：城市安全不仅依赖于传统的人力和物力资源，还应充分利用现代科技手段。例如，通过物联网技术监测城市环境变化，通过大数据分析预测潜在风险，通过无人机等设备进行快速救援。人工智能在这些领域的应用可以显著提升城市应对突发事件的能力。
+7. **加强法律法规建设**：建立健全城市安全和应急管理的法律法规体系，为城市治理提供法律保障。明确规定各级政府、企业和个人在突发事件中的责任和义务，确保应急管理工作的合法性和有效性。
+通过上述措施的实施，可以有效提升城市的综合安全水平，确保城市在面对自然灾害、公共卫生事件等突发事件时能够保持运行的安全性和稳定性。</t>
   </si>
   <si>
     <t>**项目申请书**
-**摘要**
-城市治理面临的挑战日益复杂，涉及空间结构、环境质量、交通网络、灾害风险以及人文地理等多个方面。本项目旨在通过跨学科合作，运用地理信息系统（GIS）、遥感技术、环境监测技术、交通网络分析、风险评估以及人文地理分析等手段，构建一个系统性的、具备操作性的科学解决方案。项目将为城市空间结构与土地利用优化、环境质量与生态健康评估、交通网络与居民出行模式优化、灾害风险管理与应急响应、城市化进程中的人文地理变化提供科学依据和技术支持。
-**研究背景和意义**
-随着全球城市化进程的不断加快，城市治理面临着前所未有的挑战。一方面，城市化带来了经济增长和社会发展，促进了人类文明的进步；另一方面，城市化也引发了空间结构失衡、环境污染、交通拥堵、灾害频发、社会问题等一系列挑战。因此，构建一个能够适应和解决这些问题的城市治理体系，对于提高城市生活质量、推动可持续发展具有重要意义。本项目正是基于这样的背景，旨在通过多学科交叉研究，为城市治理提供科学的方法论和技术手段。
-**研究内容**
-1. 城市空间结构与土地利用的优化
-2. 城市环境质量与生态健康评估
-3. 城市交通网络与居民出行模式优化
-4. 城市灾害风险管理与应急响应
-5. 城市化进程中的人文地理变化
-**拟解决的科学问题**
-1. 如何通过GIS和遥感技术优化城市空间结构与土地利用？
-2. 如何评估并改善城市环境质量和生态系统健康？
-3. 如何通过交通网络分析优化居民出行模式，减少交通拥堵？
-4. 如何评估城市灾害风险并建立有效的应急响应机制？
-5. 如何理解城市化进程中的人文地理变化及其对社会经济的影响？
-**拟提出的技术路线**
-1. **城市空间结构与土地利用的优化**
-   - 数据收集与处理：利用遥感卫星图像、无人机航拍等技术，收集城市土地利用现状数据。
-   - 土地利用分类与制图：基于GIS技术，对收集的数据进行分类，制作土地利用现状图。
-   - 土地利用效率评估：分析各类土地的利用效率，识别低效或不合理的土地使用区域。
-   - 优化建议：提出土地利用优化方案，包括绿地建设、工业用地调整等。
-   - 实施与监测：与城市规划部门合作，推动优化方案的实施，并通过定期监测评估效果。
-2. **城市环境质量与生态健康评估**
-   - 数据收集与整合：收集空气质量、水质、土壤质量等环境数据，以及植被覆盖度、生物多样性等生态数据。
-   - 空间分析与模型构建：利用GIS技术，对数据进行空间分析，构建环境质量与生态健康评估模型。
-   - 评估与诊断：基于模型评估城市各区域的环境质量和生态健康状况。
-   - 规划与设计：根据评估结果，提出城市绿地规划与建设方案，改善城市生态环境。
-   - 实施与管理：与环境管理部门合作，推动规划方案的实施，并进行持续管理和优化。
-3. **城市交通网络与居民出行模式优化**
-   - 数据收集与处理：收集交通流量、出行时间、出行方式等数据，以及交通网络的空间分布数据。
-   - 交通网络建模：利用GIS技术，构建城市交通网络模型。
-   - 出行模式分析：分析居民的出行模式，识别主要出行需求和出行瓶颈。
-   - 拥堵识别与量化：基于模型分析，识别交通拥堵的主要区域和时间段。
-   - 优化与策略制定：提出交通网络优化方案，包括交通信号优化、公交线路调整等。
-   - 方案评估与实施：通过模拟评估方案的效果，与交通管理部门合作推动方案实施。
-4. **城市灾害风险管理与应急响应**
-   - 数据收集与处理：收集城市地质、气象、水文等数据，以及历史灾害数据。
-   - 风险评估：利用GIS技术，评估城市各区域的灾害风险，如洪水、地震、城市内涝等。
-   - 应急预案制定：根据风险评估结果，制定详细的应急预案。
-   - 模拟与演练：通过模拟演练，检验应急预案的有效性和可操作性。
-   - 持续监测与更新：建立灾害风险监测系统，及时更新风险评估和应急预案。
-5. **城市化进程中的人文地理变化**
-   - 数据收集与处理：收集人口普查、社会调查、文化活动等数据。
-   - 人口迁移分析：分析城市化过程中的人口迁移趋势和原因。
-   - 文化融合分析：研究城市化过程中的文化融合现象及其影响。
-   - 社会影响评估：评估城市化对社会结构、经济发展的影响。
-   - 规划建议：提出促进社会融合和经济发展的规划建议。
-**预期成果**
-1. 一系列城市空间结构与土地利用优化方案，提高城市土地利用效率。
-2. 一套城市环境质量与生态健康评估模型，指导城市绿地规划与建设。
-3. 交通网络优化方案，有效缓解城市交通拥堵。
-4. 城市灾害风险评估和应急预案，提高城市灾害应对能力。
-5. 城市化进程中人文地理变化的研究报告，为城市社会经济发展提供参考。
-通过本项目的研究，将为城市治理提供科学依据和技术支持，推动城市可持续发展。</t>
+**题目：** 基于多学科视角的城市治理优化研究——构建可持续发展的城市系统
+**摘要：**
+随着城市化进程的加速，城市面临的空间、经济、社会、环境和安全等多方面挑战日益突出。本项目旨在通过多学科视角的整合分析，提出一套系统性的、具备操作性的城市治理优化方案，以促进城市的可持续发展。项目将围绕城市空间结构与功能区布局优化、城市经济增长与就业机会创造、城市社会包容性与社区参与、城市环境管理与生态可持续性、城市安全与应急管理等五大方面展开研究，采用遥感、GIS分析、社会调查、环境评估等方法，结合地理学、经济学、社会学、环境科学等多个学科的知识体系，为城市治理提供科学依据和实践指导。
+**研究背景和意义：**
+城市作为人类活动最为密集的区域，其发展直接影响到区域乃至全球的经济、社会和环境状况。当前，城市面临着人口增长、资源紧张、环境污染、社会不平等、安全隐患等诸多问题。传统的城市治理模式已难以适应复杂多变的城市发展需求，需要从多学科视角出发，探索新的治理理念和方法。本项目的研究不仅有助于解决当前城市面临的具体问题，也为构建未来可持续发展的城市模式提供了理论基础和实践路径。
+**研究内容：**
+1. 城市空间结构与功能区布局优化：分析城市空间结构现状及存在问题，提出优化布局的策略。
+2. 城市经济增长与就业机会创造：研究城市经济发展的驱动因素，探索增加就业的新途径。
+3. 城市社会包容性与社区参与：评估城市社会包容性现状，制定提升居民参与度的措施。
+4. 城市环境管理与生态可持续性：评估城市环境质量，提出生态可持续发展的方案。
+5. 城市安全与应急管理：分析城市安全风险，建立有效的应急管理体系。
+**拟解决的科学问题：**
+1. 如何通过空间结构优化提升城市效率和生活质量？
+2. 城市经济增长与就业机会创造之间的关系及其优化策略是什么？
+3. 如何增强城市社会的包容性和促进社区有效参与？
+4. 城市环境管理与生态可持续性之间的关系及其提升路径是什么？
+5. 如何构建高效的城市安全与应急管理体系以应对突发事件？
+**拟提出的技术路线：**
+1. **城市空间结构与功能区布局优化：**
+   - 数据收集：利用遥感技术和GIS平台收集城市土地利用、交通、公共服务设施等空间数据。
+   - 现状分析：通过空间分析方法对城市空间结构和功能布局进行评价。
+   - 优化模型：构建多目标优化模型，考虑经济发展、环境保护、社会福利等多方面因素。
+   - 方案实施与评估：提出优化方案并进行模拟评估，确保方案的可行性和有效性。
+2. **城市经济增长与就业机会创造：**
+   - 经济普查与就业数据的收集与分析：通过经济普查数据和劳动部门的就业统计数据，分析城市经济结构和就业情况。
+   - 经济增长模型的建立：使用经济计量模型分析经济增长的驱动因素，并预测未来趋势。
+   - 政策建议：基于模型分析结果，提出促进经济增长和就业机会创造的政策建议。
+3. **城市社会包容性与社区参与：**
+   - 社会调查：开展问卷调查，了解居民对城市社会包容性和社区参与度的认识和需求。
+   - 案例研究：选取代表性社区进行深入研究，分析影响社会包容性和社区参与度的因素。
+   - 政策干预：根据调查和研究结果，设计提升社区参与度和社会包容性的干预措施。
+4. **城市环境管理与生态可持续性：**
+   - 环境质量评估：利用环境监测数据，评估空气质量、水质、噪音等环境质量。
+   - 生态系统服务评估：使用生态系统服务价值评估模型，分析城市生态系统对经济、社会的贡献。
+   - 环境管理策略：依据评估结果，提出改善城市环境质量、提升生态系统服务的管理策略。
+5. **城市安全与应急管理：**
+   - 风险评估：识别城市面临的主要安全风险，包括自然灾害、人为事故等，评估其潜在影响。
+   - 应急响应体系构建：设计一套包括预警、响应、恢复等环节的应急管理体系。
+   - 应急演练与公众教育：定期组织应急演练，加强公众安全意识和应对能力的培训。
+**预期成果：**
+1. 一套全面的城市空间结构与功能区布局优化方案，促进城市空间的高效利用。
+2. 促进城市经济增长和就业机会的具体政策建议，有助于增强城市的经济活力。
+3. 提升城市社会包容性和社区参与度的有效措施，增强社区凝聚力和居民幸福感。
+4. 城市环境管理和生态可持续性的改进方案，实现经济发展与环境保护的双赢。
+5. 健全的城市安全与应急管理体系，提高城市应对突发事件的能力。
+本项目的实施将为城市治理提供科学的决策依据，推动城市向着更加高效、宜居、包容、绿色、安全的方向发展。</t>
   </si>
   <si>
     <t>**项目申请书**
-**摘要**
-城市治理面临的挑战日益复杂，涉及空间结构、环境质量、交通网络、灾害风险以及人文地理等多个方面。本项目旨在通过跨学科合作，运用地理信息系统（GIS）、遥感技术、环境监测技术、交通网络分析、风险评估以及人文地理分析等手段，构建一个系统性的、具备操作性的科学解决方案。项目将为城市空间结构与土地利用优化、环境质量与生态健康评估、交通网络与居民出行模式优化、灾害风险管理与应急响应、城市化进程中的人文地理变化提供科学依据和技术支持。
-**研究背景和意义**
-随着全球城市化进程的不断加快，城市治理面临着前所未有的挑战。一方面，城市化带来了经济增长和社会发展，促进了人类文明的进步；另一方面，城市化也引发了空间结构失衡、环境污染、交通拥堵、灾害频发、社会问题等一系列挑战。因此，构建一个能够适应和解决这些问题的城市治理体系，对于提高城市生活质量、推动可持续发展具有重要意义。本项目正是基于这样的背景，旨在通过多学科交叉研究，为城市治理提供科学的方法论和技术手段。
-**研究内容**
-1. 城市空间结构与土地利用的优化
-2. 城市环境质量与生态健康评估
-3. 城市交通网络与居民出行模式优化
-4. 城市灾害风险管理与应急响应
-5. 城市化进程中的人文地理变化
-**拟解决的科学问题**
-1. 如何通过GIS和遥感技术优化城市空间结构与土地利用？
-2. 如何评估并改善城市环境质量和生态系统健康？
-3. 如何通过交通网络分析优化居民出行模式，减少交通拥堵？
-4. 如何评估城市灾害风险并建立有效的应急响应机制？
-5. 如何理解城市化进程中的人文地理变化及其对社会经济的影响？
-**拟提出的技术路线**
-1. **城市空间结构与土地利用的优化**
-   - **数据收集与处理**：利用遥感卫星图像、无人机航拍等技术，收集城市土地利用现状数据。
-   - **土地利用分类与制图**：基于GIS技术，对收集的数据进行分类，制作土地利用现状图。
-   - **土地利用效率评估**：分析各类土地的利用效率，识别低效或不合理的土地使用区域。
-   - **优化建议**：提出土地利用优化方案，包括绿地建设、工业用地调整等。
-   - **实施与监测**：与城市规划部门合作，推动优化方案的实施，并通过定期监测评估效果。
-2. **城市环境质量与生态健康评估**
-   - **数据收集与整合**：收集空气质量、水质、土壤质量等环境数据，以及植被覆盖度、生物多样性等生态数据。
-   - **空间分析与模型构建**：利用GIS技术，对数据进行空间分析，构建环境质量与生态健康评估模型。
-   - **评估与诊断**：基于模型评估城市各区域的环境质量和生态健康状况。
-   - **规划与设计**：根据评估结果，提出城市绿地规划与建设方案，改善城市生态环境。
-   - **实施与管理**：与环境管理部门合作，推动规划方案的实施，并进行持续管理和优化。
-3. **城市交通网络与居民出行模式优化**
-   - **数据收集与处理**：收集交通流量、出行时间、出行方式等数据，以及交通网络的空间分布数据。
-   - **交通网络建模**：利用GIS技术，构建城市交通网络模型。
-   - **出行模式分析**：分析居民的出行模式，识别主要出行需求和出行瓶颈。
-   - **拥堵识别与量化**：基于模型分析，识别交通拥堵的主要区域和时间段。
-   - **优化与策略制定**：提出交通网络优化方案，包括交通信号优化、公交线路调整等。
-   - **方案评估与实施**：通过模拟评估方案的效果，与交通管理部门合作推动方案实施。
-4. **城市灾害风险管理与应急响应**
-   - **数据收集与处理**：收集城市地质、气象、水文等数据，以及历史灾害数据。
-   - **风险评估**：利用GIS技术，评估城市各区域的灾害风险，如洪水、地震、城市内涝等。
-   - **应急预案制定**：根据风险评估结果，制定详细的应急预案。
-   - **模拟与演练**：通过模拟演练，检验应急预案的有效性和可操作性。
-   - **持续监测与更新**：建立灾害风险监测系统，及时更新风险评估和应急预案。
-5. **城市化进程中的人文地理变化**
-   - **数据收集与处理**：收集人口普查、社会调查、文化活动等数据。
-   - **人口迁移分析**：分析城市化过程中的人口迁移趋势和原因。
-   - **文化融合分析**：研究城市化过程中的文化融合现象及其影响。
-   - **社会影响评估**：评估城市化对社会结构、经济发展的影响。
-   - **规划建议**：提出促进社会融合和经济发展的规划建议。
-**预期成果**
-1. 一系列城市空间结构与土地利用优化方案，提高城市土地利用效率。
-2. 一套城市环境质量与生态健康评估模型，指导城市绿地规划与建设。
-3. 交通网络优化方案，有效缓解城市交通拥堵。
-4. 城市灾害风险评估和应急预案，提高城市灾害应对能力。
-5. 城市化进程中人文地理变化的研究报告，为城市社会经济发展提供参考。
-通过本项目的研究，将为城市治理提供科学依据和技术支持，推动城市可持续发展。</t>
+**题目：** 基于多学科视角的城市治理优化研究——构建可持续发展的城市系统
+**摘要：**
+随着城市化进程的加速，城市面临的空间、经济、社会、环境和安全等多方面挑战日益突出。本项目旨在通过多学科视角的整合分析，提出一套系统性的、具备操作性的城市治理优化方案，以促进城市的可持续发展。项目将围绕城市空间结构与功能区布局优化、城市经济增长与就业机会创造、城市社会包容性与社区参与、城市环境管理与生态可持续性、城市安全与应急管理等五大方面展开研究，采用遥感、GIS分析、社会调查、环境评估等方法，结合地理学、经济学、社会学、环境科学等多个学科的知识体系，为城市治理提供科学依据和实践指导。
+**研究背景和意义：**
+城市作为人类活动最为密集的区域，其发展直接影响到区域乃至全球的经济、社会和环境状况。当前，城市面临着人口增长、资源紧张、环境污染、社会不平等、安全隐患等诸多问题。传统的城市治理模式已难以适应复杂多变的城市发展需求，需要从多学科视角出发，探索新的治理理念和方法。本项目的研究不仅有助于解决当前城市面临的具体问题，也为构建未来可持续发展的城市模式提供了理论基础和实践路径。
+**研究内容：**
+1. **城市空间结构与功能区布局优化**：
+   - **功能区的合理分布**：商业区应设置在交通便利、人流量大的区域，居住区应考虑与工作地点的合理距离，工业区的布局需考虑到对环境的影响。
+   - **交通网络的优化**：高效的交通网络应能够快速疏散人流和物流，减少交通拥堵，同时鼓励居民使用公共交通工具，减少私家车使用。
+   - **绿地和开放空间的规划**：合理的绿地和开放空间布局可以提高城市居民的生活质量，促进身心健康，同时为城市生物多样性保护提供支持。
+   - **环境与社会和谐**：通过建设低影响开发（LID）系统和规划包容性社区，减少城市化对自然环境的影响，促进不同社会群体之间的交流与融合。
+2. **城市经济增长与就业机会创造**：
+   - **产业布局**：发展具有比较优势的产业，如高新技术产业、金融服务、文化创意等，形成完整的产业链，提高生产效率。
+   - **投资环境**：完善基础设施建设，简化行政手续，提供政策支持和财政补贴，打造有利于企业发展的投资软环境。
+   - **税收政策**：采取减税降费措施，减轻企业负担，特别是对中小企业和初创企业，通过税收优惠吸引特定行业的投资。
+   - **影响分析**：优化的产业结构和良好的投资环境能够吸引更多的资本和人才流入，提高城市的整体竞争力，创造大量就业机会。
+3. **城市社会包容性与社区参与**：
+   - **政策支持**：制定和实施针对弱势群体的保护和支持措施，如提供教育、培训、就业机会和社会福利。
+   - **文化交流**：加强文化交流和融合政策，消除歧视，促进不同社会群体之间的理解和尊重。
+   - **社区参与**：建立社区议事会、开展公民教育活动、利用信息技术建立在线参与平台，增强居民的参与热情和责任感。
+   - **多方协作**：政府、社会组织、企业和个人共同推动社会包容性和社区参与的发展，形成全社会共同参与的治理机制。
+4. **城市环境管理与生态可持续性**：
+   - **绿色基础设施建设**：推广绿色建筑、绿色交通系统和城市绿化，建设公园、绿地、自然保护区等。
+   - **循环经济模式**：鼓励企业采用循环经济模式，实现资源的高效利用和循环再利用。
+   - **环境友好型技术**：支持环保技术的研发，如清洁能源技术、污染控制技术，减少工业生产和交通运输对环境的影响。
+   - **政策法规与激励机制**：制定严格的环境保护法律法规，加强对环境污染行为的监管和处罚，同时建立奖励机制，引导社会资源向绿色产业倾斜。
+   - **公众参与和社会教育**：提高公众环保意识，鼓励居民参与环境保护活动，形成全社会共同参与的良好氛围。
+5. **城市安全与应急管理**：
+   - **基础设施韧性建设**：采用智能传感器网络实时监控城市关键基础设施的运行状态，通过大数据分析预测潜在的风险点，及时进行维护和升级。
+   - **应急预案的制定与演练**：利用人工智能技术模拟不同灾害情景下的应急响应过程，评估预案的有效性，并定期组织多部门参与的应急演练。
+   - **多部门协作机制**：构建包括政府、企业、社会组织、公众在内的综合应急管理体系，确保各方在危机发生时能够快速响应、协同作战。
+   - **公众教育与参与**：通过开展安全教育活动、发布科普信息、组织自救互救技能培训等方式，增强市民在危机中的应对能力。
+   - **技术创新与应用**：持续关注技术前沿，积极探索新技术在城市管理中的应用，提升城市的安全管理水平。
+**拟解决的科学问题：**
+1. 如何通过空间结构优化提升城市效率和生活质量？
+2. 城市经济增长与就业机会创造之间的关系及其优化策略是什么？
+3. 如何增强城市社会的包容性和促进社区有效参与？
+4. 城市环境管理与生态可持续性之间的关系及其提升路径是什么？
+5. 如何构建高效的城市安全与应急管理体系以应对突发事件？
+**拟提出的技术路线：**
+1. **城市空间结构与功能区布局优化**：
+   - **数据收集**：利用遥感技术和GIS平台收集城市土地利用、交通、公共服务设施等空间数据。
+   - **现状分析**：通过空间分析方法对城市空间结构和功能布局进行评价。
+   - **优化模型**：构建多目标优化模型，考虑经济发展、环境保护、社会福利等多方面因素。
+   - **方案实施与评估**：提出优化方案并进行模拟评估，确保方案的可行性和有效性。
+2. **城市经济增长与就业机会创造**：
+   - **经济普查与就业数据的收集与分析**：通过经济普查数据和劳动部门的就业统计数据，分析城市经济结构和就业情况。
+   - **经济增长模型的建立**：使用经济计量模型分析经济增长的驱动因素，并预测未来趋势。
+   - **政策建议**：基于模型分析结果，提出促进经济增长和就业机会创造的政策建议。
+3. **城市社会包容性与社区参与**：
+   - **社会调查**：开展问卷调查，了解居民对城市社会包容性和社区参与度的认识和需求。
+   - **案例研究**：选取代表性社区进行深入研究，分析影响社会包容性和社区参与度的因素。
+   - **政策干预**：根据调查和研究结果，设计提升社区参与度和社会包容性的干预措施。
+4. **城市环境管理与生态可持续性**：
+   - **环境质量评估**：利用环境监测数据，评估空气质量、水质、噪音等环境质量。
+   - **生态系统服务评估**：使用生态系统服务价值评估模型，分析城市生态系统对经济、社会的贡献。
+   - **环境管理策略**：依据评估结果，提出改善城市环境质量、提升生态系统服务的管理策略。
+5. **城市安全与应急管理**：
+   - **风险评估**：识别城市面临的主要安全风险，包括自然灾害、人为事故等，评估其潜在影响。
+   - **应急响应体系构建**：设计一套包括预警、响应、恢复等环节的应急管理体系。
+   - **应急演练与公众教育**：定期组织应急演练，加强公众安全意识和应对能力的培训。
+**预期成果：**
+1. 一套全面的城市空间结构与功能区布局优化方案，促进城市空间的高效利用。
+2. 促进城市经济增长和就业机会的具体政策建议，有助于增强城市的经济活力。
+3. 提升城市社会包容性和社区参与度的有效措施，增强社区凝聚力和居民幸福感。
+4. 城市环境管理和生态可持续性的改进方案，实现经济发展与环境保护的双赢。
+5. 健全的城市安全与应急管理体系，提高城市应对突发事件的能力。
+本项目的实施将为城市治理提供科学的决策依据，推动城市向着更加高效、宜居、包容、绿色、安全的方向发展。</t>
   </si>
 </sst>
 </file>
@@ -865,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -907,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -921,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -935,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -946,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -960,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -974,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -988,10 +891,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1002,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1013,13 +916,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -1030,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -1044,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -1058,10 +961,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -1072,10 +975,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1083,16 +986,16 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1100,12 +1003,26 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
